--- a/Hardware/Digikey_parts.xlsx
+++ b/Hardware/Digikey_parts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
   <si>
     <t>Partnumber</t>
   </si>
@@ -62,12 +62,6 @@
     <t>D201</t>
   </si>
   <si>
-    <t>NTS1045EMFST1G</t>
-  </si>
-  <si>
-    <t>NTS1045EMFST1G-ND</t>
-  </si>
-  <si>
     <t xml:space="preserve">Status </t>
   </si>
   <si>
@@ -77,9 +71,6 @@
     <t>nicht verfügabr</t>
   </si>
   <si>
-    <t>https://www.digikey.at/products/de?keywords=NTS1045EMFST1G</t>
-  </si>
-  <si>
     <t>U203</t>
   </si>
   <si>
@@ -188,27 +179,9 @@
     <t>Q201</t>
   </si>
   <si>
-    <t>DMP3013SFK</t>
-  </si>
-  <si>
-    <t>SRN6028-6R2M</t>
-  </si>
-  <si>
     <t>L202</t>
   </si>
   <si>
-    <t>https://www.digikey.at/product-detail/de/bourns-inc/SRN6028-6R2M/SRN6028-6R2MCT-ND/4867804</t>
-  </si>
-  <si>
-    <t>SRN6028-6R2MCT-ND</t>
-  </si>
-  <si>
-    <t>DMP3013SFK-7-ND</t>
-  </si>
-  <si>
-    <t>https://www.digikey.at/product-detail/de/diodes-incorporated/DMP3013SFK-7/DMP3013SFK-7-ND/8286365</t>
-  </si>
-  <si>
     <t>L201</t>
   </si>
   <si>
@@ -285,13 +258,112 @@
   </si>
   <si>
     <t>12,3X 12,3</t>
+  </si>
+  <si>
+    <t>NTS1045MFST1GOSCT-ND</t>
+  </si>
+  <si>
+    <t>NTS1045MFST1G</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/on-semiconductor/NTS1045MFST1G/NTS1045MFST1GOSCT-ND/5022594</t>
+  </si>
+  <si>
+    <t>SRN6028-6R0M</t>
+  </si>
+  <si>
+    <t>SRN6028-6R0MCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/product-detail/de/bourns-inc/SRN6028-6R0M/SRN6028-6R0MCT-ND/4867803</t>
+  </si>
+  <si>
+    <t>U-DFN2523-6</t>
+  </si>
+  <si>
+    <t>IRFHM9331TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=IRFHM9331TRPBFCT-ND</t>
+  </si>
+  <si>
+    <t>J502 / J503</t>
+  </si>
+  <si>
+    <t>SJ-43516-SMT-TR</t>
+  </si>
+  <si>
+    <t>CP-43516SJCT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=CP-43516SJCT-ND</t>
+  </si>
+  <si>
+    <t>J201</t>
+  </si>
+  <si>
+    <t>281-1882-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=281-1882-ND</t>
+  </si>
+  <si>
+    <t>J501</t>
+  </si>
+  <si>
+    <t>EB21A-04-D</t>
+  </si>
+  <si>
+    <t>2057-EB21A-04-D-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=2057-EB21A-04-D-ND</t>
+  </si>
+  <si>
+    <t>J1</t>
+  </si>
+  <si>
+    <t>BM02B-GHS-TBT(LF)(SN)(N)</t>
+  </si>
+  <si>
+    <t>455-1578-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=455-1578-1-ND</t>
+  </si>
+  <si>
+    <t>J203</t>
+  </si>
+  <si>
+    <t>J401</t>
+  </si>
+  <si>
+    <t>BM08B-GHS-TBT(LF)(SN)(N)</t>
+  </si>
+  <si>
+    <t>455-1584-1-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=455-1584-1-ND</t>
+  </si>
+  <si>
+    <t>J402 /J403/J404/ J405</t>
+  </si>
+  <si>
+    <t>455-1580-1-ND</t>
+  </si>
+  <si>
+    <t>BM04B-GHS-TBT(LF)(SN)(N)</t>
+  </si>
+  <si>
+    <t>https://www.digikey.at/products/de?keywords=455-1580-1-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,13 +412,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -371,7 +467,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -389,7 +485,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -671,10 +777,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:J37"/>
+  <dimension ref="A11:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -704,16 +810,16 @@
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -743,21 +849,21 @@
         <v>2.19</v>
       </c>
       <c r="I16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="E17" t="s">
         <v>5</v>
@@ -769,25 +875,25 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <f t="shared" ref="H17:H35" si="0">F17*G17</f>
+        <f t="shared" ref="H17:H42" si="0">F17*G17</f>
         <v>0.92</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -803,21 +909,21 @@
         <v>0.84</v>
       </c>
       <c r="I18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -833,21 +939,21 @@
         <v>0.36</v>
       </c>
       <c r="I19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="C20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -863,21 +969,21 @@
         <v>1.73</v>
       </c>
       <c r="I20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="B21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -893,69 +999,72 @@
         <v>1.17</v>
       </c>
       <c r="I21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" t="s">
-        <v>5</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
+      <c r="C23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F23" s="13">
+        <v>4.08</v>
+      </c>
+      <c r="G23" s="12">
         <v>0</v>
       </c>
-      <c r="I22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" t="s">
-        <v>41</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.08</v>
-      </c>
-      <c r="G23">
-        <v>1</v>
-      </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>4.08</v>
-      </c>
-      <c r="I23" t="s">
-        <v>15</v>
+        <v>0</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E24" t="s">
         <v>5</v>
@@ -971,21 +1080,21 @@
         <v>2.1</v>
       </c>
       <c r="I24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="E25" t="s">
         <v>5</v>
@@ -1001,7 +1110,7 @@
         <v>2.92</v>
       </c>
       <c r="I25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
@@ -1009,156 +1118,166 @@
         <v>11</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>13</v>
+        <v>79</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>78</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="E26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="8"/>
+      <c r="F26" s="2">
+        <v>0.48</v>
+      </c>
       <c r="G26" s="8">
         <v>1</v>
       </c>
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>16</v>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="I26" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>17</v>
+        <v>79</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>80</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="2">
+        <v>0.48</v>
+      </c>
       <c r="G27" s="10">
         <v>1</v>
       </c>
-      <c r="H27" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="I27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>85</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G28" s="10">
-        <v>1</v>
-      </c>
-      <c r="H28" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>16</v>
+        <v>86</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>0.51</v>
+      </c>
+      <c r="G28" s="17">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+      <c r="I28" s="21" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="E29" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="F29" s="2">
+        <v>0.38</v>
+      </c>
       <c r="G29" s="10">
         <v>1</v>
       </c>
-      <c r="H29" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>0.38</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F30" s="13">
+      <c r="A30" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="19">
         <v>1.45</v>
       </c>
-      <c r="G30" s="11">
-        <v>1</v>
-      </c>
-      <c r="H30" s="11">
+      <c r="G30" s="17">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="I30" s="15" t="s">
-        <v>15</v>
+      <c r="I30" s="21" t="s">
+        <v>13</v>
       </c>
       <c r="J30" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="E31" s="8" t="s">
         <v>5</v>
@@ -1169,26 +1288,26 @@
       <c r="G31" s="10">
         <v>1</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31">
         <f t="shared" si="0"/>
         <v>0.38</v>
       </c>
       <c r="I31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>5</v>
@@ -1199,26 +1318,26 @@
       <c r="G32" s="10">
         <v>1</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32">
         <f t="shared" si="0"/>
         <v>1.0900000000000001</v>
       </c>
       <c r="I32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>5</v>
@@ -1229,26 +1348,26 @@
       <c r="G33" s="10">
         <v>1</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33">
         <f t="shared" si="0"/>
         <v>0.6</v>
       </c>
       <c r="I33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>5</v>
@@ -1259,26 +1378,26 @@
       <c r="G34" s="10">
         <v>1</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34">
         <f t="shared" si="0"/>
         <v>0.17</v>
       </c>
       <c r="I34" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="C35" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>5</v>
@@ -1289,18 +1408,228 @@
       <c r="G35" s="10">
         <v>4</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35">
         <f t="shared" si="0"/>
         <v>1.24</v>
       </c>
       <c r="I35" t="s">
-        <v>15</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>89</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>1.76</v>
+      </c>
+      <c r="I36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37">
+        <v>1760510000</v>
+      </c>
+      <c r="C37" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G37" s="10">
+        <v>1</v>
+      </c>
       <c r="H37">
-        <f>SUM(H16:H35)</f>
-        <v>21.24</v>
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="I37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s">
+        <v>96</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>0.62</v>
+      </c>
+      <c r="I38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F39" s="2">
+        <v>0.32</v>
+      </c>
+      <c r="G39" s="10">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>0.32</v>
+      </c>
+      <c r="I39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="12">
+        <v>1760510000</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="D40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="13">
+        <v>0.43</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="I40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>104</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>106</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="G41" s="10">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>0.43</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+      <c r="B42" t="s">
+        <v>109</v>
+      </c>
+      <c r="C42" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F42" s="2">
+        <v>0.38</v>
+      </c>
+      <c r="G42" s="10">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>1.52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <f>SUM(H16:H42)</f>
+        <v>24.520000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1314,18 +1643,24 @@
     <hyperlink ref="D23" r:id="rId7"/>
     <hyperlink ref="D24" r:id="rId8"/>
     <hyperlink ref="D25" r:id="rId9"/>
-    <hyperlink ref="D26" r:id="rId10"/>
-    <hyperlink ref="D27" r:id="rId11"/>
-    <hyperlink ref="D29" r:id="rId12"/>
-    <hyperlink ref="D28" r:id="rId13"/>
-    <hyperlink ref="D31" r:id="rId14"/>
-    <hyperlink ref="D32" r:id="rId15"/>
-    <hyperlink ref="D33" r:id="rId16"/>
-    <hyperlink ref="D34" r:id="rId17"/>
-    <hyperlink ref="D35" r:id="rId18"/>
-    <hyperlink ref="D30" r:id="rId19"/>
+    <hyperlink ref="D28" r:id="rId10"/>
+    <hyperlink ref="D31" r:id="rId11"/>
+    <hyperlink ref="D32" r:id="rId12"/>
+    <hyperlink ref="D33" r:id="rId13"/>
+    <hyperlink ref="D34" r:id="rId14"/>
+    <hyperlink ref="D35" r:id="rId15"/>
+    <hyperlink ref="D30" r:id="rId16"/>
+    <hyperlink ref="D26" r:id="rId17"/>
+    <hyperlink ref="D27" r:id="rId18"/>
+    <hyperlink ref="D29" r:id="rId19"/>
+    <hyperlink ref="D36" r:id="rId20"/>
+    <hyperlink ref="D37" r:id="rId21"/>
+    <hyperlink ref="D38" r:id="rId22"/>
+    <hyperlink ref="D39" r:id="rId23"/>
+    <hyperlink ref="D40" r:id="rId24"/>
+    <hyperlink ref="D42" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId20"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
--- a/Hardware/Digikey_parts.xlsx
+++ b/Hardware/Digikey_parts.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="237">
   <si>
     <t>Partnumber</t>
   </si>
@@ -278,9 +278,6 @@
     <t>https://www.digikey.at/product-detail/de/bourns-inc/SRN6028-6R0M/SRN6028-6R0MCT-ND/4867803</t>
   </si>
   <si>
-    <t>U-DFN2523-6</t>
-  </si>
-  <si>
     <t>IRFHM9331TRPBFCT-ND</t>
   </si>
   <si>
@@ -357,6 +354,387 @@
   </si>
   <si>
     <t>https://www.digikey.at/products/de?keywords=455-1580-1-ND</t>
+  </si>
+  <si>
+    <t>IRFHM9331TRPBF</t>
+  </si>
+  <si>
+    <t>RS Components</t>
+  </si>
+  <si>
+    <t>788-3063</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>721-3168</t>
+  </si>
+  <si>
+    <t>R212</t>
+  </si>
+  <si>
+    <t>103-4110</t>
+  </si>
+  <si>
+    <t>172-3820</t>
+  </si>
+  <si>
+    <t>C202</t>
+  </si>
+  <si>
+    <t>915-9334</t>
+  </si>
+  <si>
+    <t>R223</t>
+  </si>
+  <si>
+    <t>666-1913</t>
+  </si>
+  <si>
+    <t>840-9228</t>
+  </si>
+  <si>
+    <t>R219</t>
+  </si>
+  <si>
+    <t>C217, C220</t>
+  </si>
+  <si>
+    <t>144-9046</t>
+  </si>
+  <si>
+    <t>170-6168</t>
+  </si>
+  <si>
+    <t>C201, C207, C203</t>
+  </si>
+  <si>
+    <t>566-973</t>
+  </si>
+  <si>
+    <t>R208</t>
+  </si>
+  <si>
+    <t>740-8892</t>
+  </si>
+  <si>
+    <t>213-2531</t>
+  </si>
+  <si>
+    <t>133-5641</t>
+  </si>
+  <si>
+    <t>684-5543</t>
+  </si>
+  <si>
+    <t>R202</t>
+  </si>
+  <si>
+    <t>213-2266</t>
+  </si>
+  <si>
+    <t>679-0419</t>
+  </si>
+  <si>
+    <t>R216,R209,R204</t>
+  </si>
+  <si>
+    <t>R206</t>
+  </si>
+  <si>
+    <t>566-535</t>
+  </si>
+  <si>
+    <t>22µF</t>
+  </si>
+  <si>
+    <t>35V</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/7883063/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>100m</t>
+  </si>
+  <si>
+    <t>1µ</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/7213168/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1034110/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>50V</t>
+  </si>
+  <si>
+    <t>10µ</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/aluminium-elektrolytkondensatoren/1723820/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F75736564</t>
+  </si>
+  <si>
+    <t>330µ</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> C222,C218</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/9159334/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>30R</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/6661913/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>264-4523</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/2644523/</t>
+  </si>
+  <si>
+    <t>30,9k</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/8409228/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>10V</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1449046/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>10µF</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1706168/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/0566973/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/7408892/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>100k</t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/2132531/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1335641/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/6845543/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>470k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k </t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/2132266/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>470R</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/6790419/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>100R</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/0566535/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263</t>
+  </si>
+  <si>
+    <t>678-9695</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/6789695/</t>
+  </si>
+  <si>
+    <t>R502</t>
+  </si>
+  <si>
+    <t>750k</t>
+  </si>
+  <si>
+    <t>862-7063</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/8627063/</t>
+  </si>
+  <si>
+    <t>R503</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>213-2553</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/2132553/</t>
+  </si>
+  <si>
+    <t>2,2µF</t>
+  </si>
+  <si>
+    <t>170-6267</t>
+  </si>
+  <si>
+    <t>7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643D656E267365617263685F6D617463685F6D6F64653D6D61746368616C6C267365617263685F7061747465726</t>
+  </si>
+  <si>
+    <t>220nF</t>
+  </si>
+  <si>
+    <t>790-0566</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/7900566/</t>
+  </si>
+  <si>
+    <t>C508, C513, C515, C520</t>
+  </si>
+  <si>
+    <t>169-6725</t>
+  </si>
+  <si>
+    <t>680nF</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1696725/?relevancy-data=7365617263685F636173636164655F6F726465723D31267365617263685F696E746572666163655F6E616D653D4931384E525353746F636B4E756D626572267365617263685F6C616E67756167655F757365643</t>
+  </si>
+  <si>
+    <t>C509, C514, C516, C523</t>
+  </si>
+  <si>
+    <t>3R3</t>
+  </si>
+  <si>
+    <t>820-6966</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/8206966/</t>
+  </si>
+  <si>
+    <t>R506, R507, R510, R511</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>264-4595</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/2644595/</t>
+  </si>
+  <si>
+    <t>C529, C530, C531, C532</t>
+  </si>
+  <si>
+    <t>100pF</t>
+  </si>
+  <si>
+    <t>C219, C510, C519</t>
+  </si>
+  <si>
+    <t>C214, C215, C204, C208, C209; C503, C507, C517, C524, C518, C521</t>
+  </si>
+  <si>
+    <t>C511, C512, C522, C525</t>
+  </si>
+  <si>
+    <t>46,4k</t>
+  </si>
+  <si>
+    <t>708-8921</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/7088921/</t>
+  </si>
+  <si>
+    <t>R508</t>
+  </si>
+  <si>
+    <t>C211;C212,C505, C506, C527, C528</t>
+  </si>
+  <si>
+    <t>R203,R302, R303</t>
+  </si>
+  <si>
+    <t>220R</t>
+  </si>
+  <si>
+    <t>566-793</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/0566793/</t>
+  </si>
+  <si>
+    <t>R304, R309</t>
+  </si>
+  <si>
+    <t>C221, C226, C301, C303, C402, C406</t>
+  </si>
+  <si>
+    <t>C213,C206,c224,C216,C223,C225,C227,C210,C205, C501, C502, C504, C526, C302, C305, C306, C304, C401, C404, C405, C403</t>
+  </si>
+  <si>
+    <t>R201,R215, R205,R222,R213,R214,R220, R211, R509, R513, R312, R407</t>
+  </si>
+  <si>
+    <t>R218,R217,R221,R207,R210, R305, R308, R401, R402, R403, R404, R405, R406, R105</t>
+  </si>
+  <si>
+    <t>R512, R501, R504, R505, r101, R102, R103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,7k </t>
+  </si>
+  <si>
+    <t>740-8877</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/smd-widerstande/7408877/</t>
+  </si>
+  <si>
+    <t>R106, R107</t>
+  </si>
+  <si>
+    <t>172-6888</t>
+  </si>
+  <si>
+    <t>https://at.rs-online.com/web/p/keramik-vielschichtkondensatoren/1726888/</t>
   </si>
 </sst>
 </file>
@@ -431,7 +809,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,6 +819,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -467,7 +851,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -481,7 +865,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -496,6 +879,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -777,14 +1168,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A11:J44"/>
+  <dimension ref="A11:J98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="111.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
@@ -823,7 +1215,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="A16" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B16" t="s">
@@ -853,7 +1245,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -883,7 +1275,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="A18" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
@@ -913,7 +1305,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="A19" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B19" t="s">
@@ -943,7 +1335,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="A20" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B20" t="s">
@@ -973,7 +1365,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B21" t="s">
@@ -1003,7 +1395,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="A22" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B22" t="s">
@@ -1024,37 +1416,37 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F23" s="12">
         <v>4.08</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G23" s="11">
         <v>0</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I23" s="12" t="s">
+      <c r="I23" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="21" t="s">
         <v>69</v>
       </c>
       <c r="B24" t="s">
@@ -1084,7 +1476,7 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="A25" s="21" t="s">
         <v>45</v>
       </c>
       <c r="B25" t="s">
@@ -1114,13 +1506,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="A26" s="22" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D26" s="9" t="s">
@@ -1144,13 +1536,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="22" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>78</v>
       </c>
       <c r="D27" s="9" t="s">
@@ -1173,38 +1565,38 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="17" t="s">
+    <row r="28" spans="1:10" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
         <v>50</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="D28" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D28" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="E28" s="21" t="s">
+      <c r="E28" s="20" t="s">
         <v>5</v>
       </c>
       <c r="F28" s="2">
         <v>0.51</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G28" s="16">
         <v>1</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
         <v>0.51</v>
       </c>
-      <c r="I28" s="21" t="s">
+      <c r="I28" s="20" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="22" t="s">
         <v>51</v>
       </c>
       <c r="B29" t="s">
@@ -1234,32 +1626,32 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
+      <c r="A30" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E30" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F30" s="18">
         <v>1.45</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G30" s="16">
         <v>1</v>
       </c>
       <c r="H30">
         <f t="shared" si="0"/>
         <v>1.45</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I30" s="20" t="s">
         <v>13</v>
       </c>
       <c r="J30" t="s">
@@ -1267,7 +1659,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="22" t="s">
         <v>53</v>
       </c>
       <c r="B31" t="s">
@@ -1297,7 +1689,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="22" t="s">
         <v>57</v>
       </c>
       <c r="B32" t="s">
@@ -1327,7 +1719,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="22" t="s">
         <v>68</v>
       </c>
       <c r="B33" t="s">
@@ -1357,7 +1749,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="A34" s="21" t="s">
         <v>67</v>
       </c>
       <c r="B34" t="s">
@@ -1387,7 +1779,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="A35" s="21" t="s">
         <v>70</v>
       </c>
       <c r="B35" t="s">
@@ -1417,17 +1809,17 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="A36" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>88</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>5</v>
@@ -1447,17 +1839,17 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>91</v>
+      <c r="A37" s="21" t="s">
+        <v>90</v>
       </c>
       <c r="B37">
         <v>1760510000</v>
       </c>
       <c r="C37" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>5</v>
@@ -1477,17 +1869,17 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="A38" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B38" t="s">
         <v>94</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>95</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>97</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>5</v>
@@ -1507,17 +1899,17 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B39" t="s">
         <v>98</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
         <v>99</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>5</v>
@@ -1537,25 +1929,25 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="B40" s="12">
+      <c r="A40" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" s="17">
         <v>1760510000</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="D40" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F40" s="13">
+      <c r="F40" s="18">
         <v>0.43</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="16">
         <v>1</v>
       </c>
       <c r="H40">
@@ -1567,19 +1959,19 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="A41" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" t="s">
         <v>103</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>104</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>105</v>
       </c>
-      <c r="D41" t="s">
-        <v>106</v>
-      </c>
-      <c r="E41" s="17" t="s">
+      <c r="E41" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F41" s="2">
@@ -1597,19 +1989,19 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="A42" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
         <v>107</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C42" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E42" s="17" t="s">
+      <c r="E42" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F42" s="2">
@@ -1631,6 +2023,815 @@
         <f>SUM(H16:H42)</f>
         <v>24.520000000000003</v>
       </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="23" t="s">
+        <v>220</v>
+      </c>
+      <c r="B47" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="27">
+        <v>1206</v>
+      </c>
+      <c r="D47" t="s">
+        <v>141</v>
+      </c>
+      <c r="E47" t="s">
+        <v>112</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+      <c r="C48" s="27">
+        <v>1210</v>
+      </c>
+      <c r="E48" t="s">
+        <v>114</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G48" t="s">
+        <v>113</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+      <c r="C49" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>116</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="E50" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G50" t="s">
+        <v>113</v>
+      </c>
+      <c r="H50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" t="s">
+        <v>152</v>
+      </c>
+      <c r="C51" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" t="s">
+        <v>141</v>
+      </c>
+      <c r="E51" t="s">
+        <v>117</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="G51" t="s">
+        <v>113</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D52" t="s">
+        <v>141</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="G52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="B53" t="s">
+        <v>156</v>
+      </c>
+      <c r="C53" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E53" t="s">
+        <v>121</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="G53" t="s">
+        <v>113</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="B54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C54" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" t="s">
+        <v>148</v>
+      </c>
+      <c r="E54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="G54" t="s">
+        <v>113</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" t="s">
+        <v>113</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" t="s">
+        <v>162</v>
+      </c>
+      <c r="E56" t="s">
+        <v>125</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="G56" t="s">
+        <v>113</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="21" t="s">
+        <v>226</v>
+      </c>
+      <c r="B57" t="s">
+        <v>164</v>
+      </c>
+      <c r="C57" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" t="s">
+        <v>162</v>
+      </c>
+      <c r="E57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G57" t="s">
+        <v>113</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="B58" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" t="s">
+        <v>128</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" t="s">
+        <v>113</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B59" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E59" t="s">
+        <v>130</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" t="s">
+        <v>113</v>
+      </c>
+      <c r="H59">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="B60" t="s">
+        <v>170</v>
+      </c>
+      <c r="C60" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E60" t="s">
+        <v>131</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G60" t="s">
+        <v>113</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" t="s">
+        <v>171</v>
+      </c>
+      <c r="C61" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" t="s">
+        <v>148</v>
+      </c>
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G61" t="s">
+        <v>113</v>
+      </c>
+      <c r="H61">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
+        <v>175</v>
+      </c>
+      <c r="C62" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" t="s">
+        <v>133</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G62" t="s">
+        <v>113</v>
+      </c>
+      <c r="H62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="21" t="s">
+        <v>229</v>
+      </c>
+      <c r="B63" t="s">
+        <v>176</v>
+      </c>
+      <c r="C63" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E63" t="s">
+        <v>135</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G63" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="B64" t="s">
+        <v>178</v>
+      </c>
+      <c r="C64" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E64" t="s">
+        <v>136</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G64" t="s">
+        <v>113</v>
+      </c>
+      <c r="H64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B65" t="s">
+        <v>180</v>
+      </c>
+      <c r="C65" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E65" t="s">
+        <v>139</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G65" t="s">
+        <v>113</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="21" t="s">
+        <v>230</v>
+      </c>
+      <c r="B66" t="s">
+        <v>181</v>
+      </c>
+      <c r="C66" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E66" t="s">
+        <v>183</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G66" t="s">
+        <v>113</v>
+      </c>
+      <c r="H66">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="B67" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" t="s">
+        <v>187</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="G67" t="s">
+        <v>113</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="B68" t="s">
+        <v>190</v>
+      </c>
+      <c r="C68" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E68" t="s">
+        <v>191</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G68" t="s">
+        <v>113</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B69" t="s">
+        <v>193</v>
+      </c>
+      <c r="C69" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" t="s">
+        <v>148</v>
+      </c>
+      <c r="E69" t="s">
+        <v>194</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G69" t="s">
+        <v>113</v>
+      </c>
+      <c r="H69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="B70" t="s">
+        <v>196</v>
+      </c>
+      <c r="C70" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" t="s">
+        <v>148</v>
+      </c>
+      <c r="E70" t="s">
+        <v>197</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" t="s">
+        <v>113</v>
+      </c>
+      <c r="H70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="B71" t="s">
+        <v>201</v>
+      </c>
+      <c r="C71" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" t="s">
+        <v>148</v>
+      </c>
+      <c r="E71" t="s">
+        <v>200</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="G71" t="s">
+        <v>113</v>
+      </c>
+      <c r="H71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="B72" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E72" t="s">
+        <v>205</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="G72" t="s">
+        <v>113</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="21" t="s">
+        <v>211</v>
+      </c>
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="D73" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G73" t="s">
+        <v>113</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B74" t="s">
+        <v>216</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E74" t="s">
+        <v>217</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="G74" t="s">
+        <v>113</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="21" t="s">
+        <v>225</v>
+      </c>
+      <c r="B75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C75" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75" t="s">
+        <v>223</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G75" t="s">
+        <v>113</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="21" t="s">
+        <v>234</v>
+      </c>
+      <c r="B76" t="s">
+        <v>231</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E76" t="s">
+        <v>232</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G76" t="s">
+        <v>113</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C77" s="27"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="28"/>
+      <c r="C78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C79" s="27"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C80" s="27"/>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="27"/>
+    </row>
+    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C82" s="27"/>
+    </row>
+    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C83" s="27"/>
+    </row>
+    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C84" s="27"/>
+    </row>
+    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C85" s="27"/>
+    </row>
+    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C86" s="27"/>
+    </row>
+    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C87" s="27"/>
+    </row>
+    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C88" s="27"/>
+    </row>
+    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C89" s="27"/>
+    </row>
+    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C90" s="27"/>
+    </row>
+    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C91" s="27"/>
+    </row>
+    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C92" s="27"/>
+    </row>
+    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C93" s="27"/>
+    </row>
+    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C94" s="27"/>
+    </row>
+    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C95" s="27"/>
+    </row>
+    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C96" s="27"/>
+    </row>
+    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C97" s="27"/>
+    </row>
+    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C98" s="27"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1659,8 +2860,38 @@
     <hyperlink ref="D39" r:id="rId23"/>
     <hyperlink ref="D40" r:id="rId24"/>
     <hyperlink ref="D42" r:id="rId25"/>
+    <hyperlink ref="F47" r:id="rId26"/>
+    <hyperlink ref="F48" r:id="rId27"/>
+    <hyperlink ref="F49" r:id="rId28"/>
+    <hyperlink ref="F51" r:id="rId29"/>
+    <hyperlink ref="F52" r:id="rId30"/>
+    <hyperlink ref="F53" r:id="rId31"/>
+    <hyperlink ref="F54" r:id="rId32"/>
+    <hyperlink ref="F55" r:id="rId33"/>
+    <hyperlink ref="F56" r:id="rId34"/>
+    <hyperlink ref="F57" r:id="rId35"/>
+    <hyperlink ref="F58" r:id="rId36"/>
+    <hyperlink ref="F59" r:id="rId37"/>
+    <hyperlink ref="F60" r:id="rId38"/>
+    <hyperlink ref="F61" r:id="rId39"/>
+    <hyperlink ref="F62" r:id="rId40"/>
+    <hyperlink ref="F63" r:id="rId41"/>
+    <hyperlink ref="F64" r:id="rId42"/>
+    <hyperlink ref="F65" r:id="rId43"/>
+    <hyperlink ref="F66" r:id="rId44"/>
+    <hyperlink ref="F67" r:id="rId45"/>
+    <hyperlink ref="F68" r:id="rId46"/>
+    <hyperlink ref="F69" r:id="rId47"/>
+    <hyperlink ref="F70" r:id="rId48"/>
+    <hyperlink ref="F71" r:id="rId49"/>
+    <hyperlink ref="F72" r:id="rId50"/>
+    <hyperlink ref="F73" r:id="rId51"/>
+    <hyperlink ref="F74" r:id="rId52"/>
+    <hyperlink ref="F75" r:id="rId53"/>
+    <hyperlink ref="F76" r:id="rId54"/>
+    <hyperlink ref="F50" r:id="rId55"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId26"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>